--- a/RUDN/Importance/Varible_f_reg_in_Southern Africa.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Southern Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>F-value</t>
   </si>
@@ -22,415 +22,391 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
+    <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
-    <t>Population ages 60-64, male (% of male population)</t>
+    <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
   </si>
 </sst>
 </file>
@@ -788,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>367.4442998788007</v>
+        <v>1832.148048263087</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -818,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>367.4442998788007</v>
+        <v>1632.641199054811</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -829,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>223.8927832849774</v>
+        <v>1112.058226341564</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -840,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>178.6246770543133</v>
+        <v>1066.922707607619</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -851,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>163.6670322641838</v>
+        <v>543.1503081682529</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -862,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>142.2229010916856</v>
+        <v>331.9346546489342</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -873,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>141.9258229149335</v>
+        <v>331.9346546489342</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -884,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>134.9514285227101</v>
+        <v>214.4713598013062</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -895,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>123.4623940390473</v>
+        <v>205.7042166500117</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -906,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>112.4057751654354</v>
+        <v>192.2278719504865</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -917,7 +893,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>102.7376400274316</v>
+        <v>152.4238647385359</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -928,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>102.2272282843204</v>
+        <v>147.844578194705</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -939,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>96.80211443814646</v>
+        <v>135.3389708333045</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -950,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>85.76065856843752</v>
+        <v>134.3402234755067</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -961,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>80.62820216982381</v>
+        <v>133.7335073340516</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -972,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>80.17714116544279</v>
+        <v>112.9162885953103</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -983,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>80.07897661057267</v>
+        <v>108.5964645587763</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -994,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>73.61030179225028</v>
+        <v>107.72861639341</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1005,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>71.28868926681908</v>
+        <v>107.72861639341</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1016,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>68.36592584831303</v>
+        <v>99.26817342829776</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1027,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>64.81177211062534</v>
+        <v>93.10812004677156</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1038,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>64.27634189535243</v>
+        <v>85.64977321289554</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1049,7 +1025,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>62.34355229904057</v>
+        <v>79.80908760885931</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1060,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>60.03628355764737</v>
+        <v>79.38105819260363</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1071,7 +1047,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>58.84207854717533</v>
+        <v>78.41335323675317</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1082,7 +1058,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>55.74076111441195</v>
+        <v>77.78598803257999</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1093,7 +1069,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>55.59405503777712</v>
+        <v>71.51783799013884</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1104,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>55.58825309263779</v>
+        <v>68.94174734238111</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1115,7 +1091,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>53.79013173304914</v>
+        <v>67.31153094644915</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1126,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>52.28175601163023</v>
+        <v>64.34117237620983</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1137,7 +1113,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>52.09463354719641</v>
+        <v>61.92208035414931</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1148,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>51.86155977664848</v>
+        <v>59.21342154934286</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1159,7 +1135,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>50.75132118060824</v>
+        <v>58.49092217345954</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1170,7 +1146,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>49.98390612668721</v>
+        <v>58.47103756170831</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1181,7 +1157,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>49.4851799553506</v>
+        <v>58.10664970762347</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1192,7 +1168,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>48.57867236890934</v>
+        <v>58.01811796719507</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1203,7 +1179,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>48.37537761214703</v>
+        <v>57.11747801462054</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1214,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>48.32234136738047</v>
+        <v>57.07415770298096</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1225,7 +1201,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>48.26968725710231</v>
+        <v>56.62801007784068</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1236,7 +1212,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>47.36306269255787</v>
+        <v>54.53640809715017</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1247,7 +1223,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>45.69598995334749</v>
+        <v>52.26353767144339</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1258,7 +1234,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>45.53172228249097</v>
+        <v>49.44748655387929</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1269,7 +1245,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>43.88677475365905</v>
+        <v>49.15219504822874</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1280,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>43.83896491984261</v>
+        <v>48.7664512845607</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1291,7 +1267,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>43.19020007728213</v>
+        <v>48.6916719294013</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1302,7 +1278,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>43.19020007728105</v>
+        <v>48.61716186197562</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1313,7 +1289,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>41.96589227106691</v>
+        <v>48.20928245859852</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1324,7 +1300,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>40.50928541545395</v>
+        <v>47.5307351005473</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1335,7 +1311,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>38.11841655494318</v>
+        <v>47.32611026217363</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1346,7 +1322,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>35.93923733592462</v>
+        <v>47.32611026217363</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1357,7 +1333,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>35.6947316262658</v>
+        <v>45.61842609268822</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1368,7 +1344,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>35.6947316262658</v>
+        <v>45.49700713972007</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1379,7 +1355,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>34.34920582267532</v>
+        <v>44.78242002338722</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1390,7 +1366,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>33.00054937639543</v>
+        <v>44.59075653484036</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1401,7 +1377,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>31.4608093913496</v>
+        <v>44.0691644991648</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1412,7 +1388,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>29.84757480470839</v>
+        <v>43.70038371257488</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1423,7 +1399,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>28.76950385188676</v>
+        <v>43.33749457577674</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1434,7 +1410,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>28.73883957138456</v>
+        <v>43.04390780004405</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1445,7 +1421,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>27.95775407133465</v>
+        <v>42.39786272242975</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1456,7 +1432,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>27.95129546489721</v>
+        <v>41.52584750390515</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1467,7 +1443,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>27.86102979554939</v>
+        <v>40.51932967796757</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1478,7 +1454,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>26.92788480637241</v>
+        <v>40.51932967796559</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1489,7 +1465,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>26.73716584612808</v>
+        <v>39.36461308816011</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1500,7 +1476,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>25.31304768498926</v>
+        <v>39.27934433628251</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1511,7 +1487,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>24.97325076401709</v>
+        <v>38.64251456042832</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1522,7 +1498,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>24.9732507637394</v>
+        <v>38.12255824682928</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1533,10 +1509,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>24.23764396546947</v>
+        <v>37.1456297419663</v>
       </c>
       <c r="C68">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1544,10 +1520,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>23.95148017586021</v>
+        <v>34.71816905354761</v>
       </c>
       <c r="C69">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1555,10 +1531,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>23.21746311755545</v>
+        <v>32.3281154693799</v>
       </c>
       <c r="C70">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1566,10 +1542,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>22.98655618184027</v>
+        <v>32.3281154693799</v>
       </c>
       <c r="C71">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1577,10 +1553,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>22.84531691238065</v>
+        <v>30.73773401911376</v>
       </c>
       <c r="C72">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1588,10 +1564,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>22.82907057717903</v>
+        <v>30.36278390641401</v>
       </c>
       <c r="C73">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1599,10 +1575,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>22.81102218942012</v>
+        <v>29.69719171342966</v>
       </c>
       <c r="C74">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1610,10 +1586,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>22.78519459439765</v>
+        <v>29.49173721116833</v>
       </c>
       <c r="C75">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1621,10 +1597,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>22.58753522526937</v>
+        <v>29.49173721116833</v>
       </c>
       <c r="C76">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1632,10 +1608,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>22.56100609135869</v>
+        <v>27.71783703862301</v>
       </c>
       <c r="C77">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1643,10 +1619,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>22.55402249462414</v>
+        <v>27.44226664360143</v>
       </c>
       <c r="C78">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1654,10 +1630,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>19.93826935651071</v>
+        <v>26.2351567941231</v>
       </c>
       <c r="C79">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1665,10 +1641,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>19.84395490992333</v>
+        <v>25.33501349922493</v>
       </c>
       <c r="C80">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1676,10 +1652,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>18.70753691948113</v>
+        <v>24.03979999239476</v>
       </c>
       <c r="C81">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1687,10 +1663,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>18.69538662893182</v>
+        <v>23.24363408511467</v>
       </c>
       <c r="C82">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1698,10 +1674,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>18.64792347817534</v>
+        <v>23.24363408507227</v>
       </c>
       <c r="C83">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1709,10 +1685,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>17.77133861075092</v>
+        <v>23.22148823506046</v>
       </c>
       <c r="C84">
-        <v>8.000000000000001e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1720,10 +1696,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>17.76987966510761</v>
+        <v>22.7420686611408</v>
       </c>
       <c r="C85">
-        <v>8.000000000000001e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1731,10 +1707,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>17.3708635253946</v>
+        <v>22.28056932909737</v>
       </c>
       <c r="C86">
-        <v>9.000000000000001e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1742,10 +1718,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>16.57111278591531</v>
+        <v>22.10751939278986</v>
       </c>
       <c r="C87">
-        <v>0.00012</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1753,10 +1729,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>15.87347485483471</v>
+        <v>19.70511383743297</v>
       </c>
       <c r="C88">
-        <v>0.00017</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1764,10 +1740,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>15.27442910454155</v>
+        <v>19.65124570661891</v>
       </c>
       <c r="C89">
-        <v>0.00022</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1775,10 +1751,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>15.07821929414428</v>
+        <v>19.08307618890769</v>
       </c>
       <c r="C90">
-        <v>0.00024</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1786,10 +1762,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>15.04933263206767</v>
+        <v>18.89428073053987</v>
       </c>
       <c r="C91">
-        <v>0.00024</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1797,10 +1773,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>14.9453316929836</v>
+        <v>18.10690717153258</v>
       </c>
       <c r="C92">
-        <v>0.00025</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1808,10 +1784,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>14.94513081360558</v>
+        <v>17.96916988465583</v>
       </c>
       <c r="C93">
-        <v>0.00025</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1819,10 +1795,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>14.91419088977341</v>
+        <v>17.51096380501546</v>
       </c>
       <c r="C94">
-        <v>0.00025</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1830,10 +1806,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>14.91002815772782</v>
+        <v>15.98984681067783</v>
       </c>
       <c r="C95">
-        <v>0.00025</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1841,10 +1817,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>14.8713387878467</v>
+        <v>15.98751307462647</v>
       </c>
       <c r="C96">
-        <v>0.00026</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1852,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>14.8493981400252</v>
+        <v>15.95946867148452</v>
       </c>
       <c r="C97">
-        <v>0.00026</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1863,10 +1839,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>14.83831418846733</v>
+        <v>15.87269442434509</v>
       </c>
       <c r="C98">
-        <v>0.00026</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1874,10 +1850,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>14.83167847618517</v>
+        <v>15.78185056608673</v>
       </c>
       <c r="C99">
-        <v>0.00026</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1885,10 +1861,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>14.75609750389376</v>
+        <v>15.27684726504995</v>
       </c>
       <c r="C100">
-        <v>0.00027</v>
+        <v>0.00023</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1896,10 +1872,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>14.54423317880018</v>
+        <v>14.92735860599297</v>
       </c>
       <c r="C101">
-        <v>0.0003</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1907,10 +1883,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>14.51237181976107</v>
+        <v>14.23730652073325</v>
       </c>
       <c r="C102">
-        <v>0.0003</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1918,10 +1894,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>14.41671347340699</v>
+        <v>13.44020169104639</v>
       </c>
       <c r="C103">
-        <v>0.00031</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1929,10 +1905,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>14.39374716870928</v>
+        <v>12.85164875869591</v>
       </c>
       <c r="C104">
-        <v>0.00032</v>
+        <v>0.00066</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1940,10 +1916,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>14.37341570690436</v>
+        <v>12.84774094518144</v>
       </c>
       <c r="C105">
-        <v>0.00032</v>
+        <v>0.00066</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1951,10 +1927,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>14.16282064505723</v>
+        <v>12.84774094518144</v>
       </c>
       <c r="C106">
-        <v>0.00035</v>
+        <v>0.00066</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1962,10 +1938,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>14.06742274104972</v>
+        <v>12.83080965453655</v>
       </c>
       <c r="C107">
-        <v>0.00037</v>
+        <v>0.00066</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1973,10 +1949,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>14.04121750739934</v>
+        <v>12.77772578233351</v>
       </c>
       <c r="C108">
-        <v>0.00037</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1984,10 +1960,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>13.65670641767746</v>
+        <v>12.2990558397506</v>
       </c>
       <c r="C109">
-        <v>0.00044</v>
+        <v>0.00084</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1995,10 +1971,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>13.5165360731439</v>
+        <v>12.28233657723753</v>
       </c>
       <c r="C110">
-        <v>0.00047</v>
+        <v>0.00085</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2006,10 +1982,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>12.73352905028398</v>
+        <v>12.17761494695489</v>
       </c>
       <c r="C111">
-        <v>0.00066</v>
+        <v>0.0008899999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2017,10 +1993,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>12.72744636399796</v>
+        <v>11.76870558520261</v>
       </c>
       <c r="C112">
-        <v>0.00067</v>
+        <v>0.00107</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2028,10 +2004,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>12.10729918343951</v>
+        <v>11.45075719042274</v>
       </c>
       <c r="C113">
-        <v>0.00088</v>
+        <v>0.00123</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2039,10 +2015,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>12.08901442778232</v>
+        <v>11.33575546874697</v>
       </c>
       <c r="C114">
-        <v>0.0008899999999999999</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2050,10 +2026,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>12.02939051964437</v>
+        <v>11.29323191581996</v>
       </c>
       <c r="C115">
-        <v>0.00091</v>
+        <v>0.00133</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2061,10 +2037,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>10.90259505114819</v>
+        <v>10.98678472245571</v>
       </c>
       <c r="C116">
-        <v>0.00153</v>
+        <v>0.00152</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2072,10 +2048,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>10.3674997167651</v>
+        <v>10.58560103894347</v>
       </c>
       <c r="C117">
-        <v>0.00197</v>
+        <v>0.00183</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2083,10 +2059,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>10.34723483953366</v>
+        <v>10.2951235740435</v>
       </c>
       <c r="C118">
-        <v>0.00199</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2094,10 +2070,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>10.26256399118053</v>
+        <v>10.16330840503282</v>
       </c>
       <c r="C119">
-        <v>0.00207</v>
+        <v>0.00223</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2105,10 +2081,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>10.22933022605512</v>
+        <v>9.897453697554729</v>
       </c>
       <c r="C120">
-        <v>0.0021</v>
+        <v>0.00253</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2116,10 +2092,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>10.21541272772667</v>
+        <v>9.897453697554729</v>
       </c>
       <c r="C121">
-        <v>0.00211</v>
+        <v>0.00253</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2127,10 +2103,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>10.21541272772667</v>
+        <v>9.414176331408703</v>
       </c>
       <c r="C122">
-        <v>0.00211</v>
+        <v>0.00317</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2138,10 +2114,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>10.2077938541852</v>
+        <v>9.23042353258063</v>
       </c>
       <c r="C123">
-        <v>0.00212</v>
+        <v>0.00346</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2149,10 +2125,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>9.750354376267337</v>
+        <v>8.832760317844695</v>
       </c>
       <c r="C124">
-        <v>0.00263</v>
+        <v>0.00419</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2160,10 +2136,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>9.710314222261873</v>
+        <v>8.82945704633573</v>
       </c>
       <c r="C125">
-        <v>0.00268</v>
+        <v>0.00419</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2171,10 +2147,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>9.54675889745551</v>
+        <v>8.538084639236761</v>
       </c>
       <c r="C126">
-        <v>0.0029</v>
+        <v>0.00482</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2182,10 +2158,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>9.035845884920501</v>
+        <v>8.0937131568905</v>
       </c>
       <c r="C127">
-        <v>0.00371</v>
+        <v>0.00598</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2193,10 +2169,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>8.613118946488703</v>
+        <v>8.016762313874901</v>
       </c>
       <c r="C128">
-        <v>0.00455</v>
+        <v>0.00621</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2204,10 +2180,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>8.56886904001523</v>
+        <v>7.489090735127963</v>
       </c>
       <c r="C129">
-        <v>0.00465</v>
+        <v>0.008059999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2215,98 +2191,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>8.462761570923437</v>
+        <v>7.181308988785582</v>
       </c>
       <c r="C130">
-        <v>0.00489</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>8.344781827287211</v>
-      </c>
-      <c r="C131">
-        <v>0.00518</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132">
-        <v>8.103696668620824</v>
-      </c>
-      <c r="C132">
-        <v>0.00584</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133">
-        <v>8.01586134677239</v>
-      </c>
-      <c r="C133">
-        <v>0.00609</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>7.641600319681708</v>
-      </c>
-      <c r="C134">
-        <v>0.00733</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>7.632093050718725</v>
-      </c>
-      <c r="C135">
-        <v>0.00737</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>7.632093050718725</v>
-      </c>
-      <c r="C136">
-        <v>0.00737</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>7.433251153583359</v>
-      </c>
-      <c r="C137">
-        <v>0.00814</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138">
-        <v>7.433251153583359</v>
-      </c>
-      <c r="C138">
-        <v>0.00814</v>
+        <v>0.009390000000000001</v>
       </c>
     </row>
   </sheetData>
